--- a/국토교통부.xlsx
+++ b/국토교통부.xlsx
@@ -441,7 +441,7 @@
     <col width="67" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="481" customWidth="1" min="4" max="4"/>
+    <col width="490" customWidth="1" min="4" max="4"/>
     <col width="73" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
@@ -475,7 +475,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[차관동정] 국토교통부,“차음성능검사 내실화로 층간소음 해결해 갈 것”</t>
+          <t>필리핀·태국, 인프라 및 산단 개발 협력 강화</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -485,78 +485,78 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
+          <t>2024-10-15</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=241011%28%EB%8F%99%EC%A0%95%29_%EA%B5%AD%ED%86%A0%EA%B5%90%ED%86%B5%EB%B6%80_%EC%B0%A8%EC%9D%8C%EC%84%B1%EB%8A%A5%EA%B2%80%EC%82%AC_%EB%82%B4%EC%8B%A4%ED%99%94%EB%A1%9C_%EC%B8%B5%EA%B0%84%EC%86%8C%EC%9D%8C_%ED%95%B4%EA%B2%B0%ED%95%B4_%EA%B0%88_%EA%B2%83.pdf</t>
+          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=241016%28%EC%A1%B0%EA%B0%84%29+%ED%95%84%EB%A6%AC%ED%95%80%C2%B7%ED%83%9C%EA%B5%AD%2C+%EC%9D%B8%ED%94%84%EB%9D%BC+%EB%B0%8F+%EC%82%B0%EB%8B%A8+%EA%B0%9C%EB%B0%9C+%ED%98%91%EB%A0%A5+%EA%B0%95%ED%99%94%28%ED%95%B4%EC%99%B8%EB%8F%84%EC%8B%9C%EA%B0%9C%EB%B0%9C%EC%A0%84%EB%9E%B5%EC%A7%80%EC%9B%90%ED%8C%80%29.pdf</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280717&amp;num=1</t>
+          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280899&amp;num=1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>데이터 경제 시대, 과기정통부-국토부 손잡고 공개제한 데이터 활용 지원 나선다</t>
+          <t>공동주택 하자 판정비율 및 건수 상위 20개 건설사 명단 공개</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>국토도시</t>
+          <t>주택토지</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
+          <t>2024-10-15</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=241011_%28%EC%84%9D%EA%B0%84%29+%EB%8D%B0%EC%9D%B4%ED%84%B0+%EA%B2%BD%EC%A0%9C+%EC%8B%9C%EB%8C%80%2C+%EA%B5%AD%ED%86%A0%EB%B6%80-%EA%B3%BC%EA%B8%B0%EC%A0%95%ED%86%B5%EB%B6%80+%EC%86%90%EC%9E%A1%EA%B3%A0+%EA%B3%B5%EA%B0%9C%EC%A0%9C%ED%95%9C+%EB%8D%B0%EC%9D%B4%ED%84%B0+%ED%99%9C%EC%9A%A9+%EC%A7%80%EC%9B%90+%EB%82%98%EC%84%A0%EB%8B%A4%28%EA%B5%AD%ED%86%A0%EC%A0%95%EB%B3%B4%EC%A0%95%EC%B1%85%EA%B3%BC%29.pdf</t>
+          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=241015%28%EC%84%9D%EA%B0%84%29+%EA%B3%B5%EB%8F%99%EC%A3%BC%ED%83%9D+%ED%95%98%EC%9E%90+%ED%8C%90%EC%A0%95%EB%B9%84%EC%9C%A8+%EB%B0%8F+%EA%B1%B4%EC%88%98+%EC%83%81%EC%9C%84+20%EA%B0%9C+%EA%B1%B4%EC%84%A4%EC%82%AC+%EB%AA%85%EB%8B%A8+%EA%B3%B5%EA%B0%9C%28%EC%A3%BC%ED%83%9D%EA%B1%B4%EC%84%A4%EA%B3%B5%EA%B8%89%EA%B3%BC%29.pdf</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280677&amp;num=1</t>
+          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280857&amp;num=1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[장관동정] 국토교통부, 쿠알라룸푸르와 도시 협력 강화</t>
+          <t>건설자재비 안정화 위한 민·관 협의 착수</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>국토도시</t>
+          <t>건설</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-14</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=241010%28%EB%8F%99%EC%A0%95%29_%EA%B5%AD%ED%86%A0%EA%B5%90%ED%86%B5%EB%B6%80__%EC%BF%A0%EC%95%8C%EB%9D%BC%EB%A3%B8%ED%91%B8%EB%A5%B4%EC%99%80_%EB%8F%84%EC%8B%9C_%ED%98%91%EB%A0%A5_%EA%B0%95%ED%99%94.pdf</t>
+          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=241015%28%EC%A1%B0%EA%B0%84%29+%EA%B1%B4%EC%84%A4%EC%9E%90%EC%9E%AC%EB%B9%84+%EC%95%88%EC%A0%95%ED%99%94+%EC%9C%84%ED%95%9C+%EB%AF%BC%C2%B7%EA%B4%80+%ED%98%91%EC%9D%98+%EC%B0%A9%EC%88%98%28%EA%B1%B4%EC%84%A4%EC%82%B0%EC%97%85%EA%B3%BC%29.pdf</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280657&amp;num=1</t>
+          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280817&amp;num=1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>14일부터 한 달간 불법자동차 일제단속</t>
+          <t>[장관동정] 박상우 장관, 정용식 한국교통안전공단 신임 이사장에 임명장 전수</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -566,159 +566,159 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=241011%28%EC%A1%B0%EA%B0%84%29+14%EC%9D%BC%EB%B6%80%ED%84%B0+%ED%95%9C+%EB%8B%AC%EA%B0%84+%EB%B6%88%EB%B2%95%EC%9E%90%EB%8F%99%EC%B0%A8+%EC%9D%BC%EC%A0%9C%EB%8B%A8%EC%86%8D%28%EC%9E%90%EB%8F%99%EC%B0%A8%EC%9A%B4%EC%98%81%EB%B3%B4%ED%97%98%EA%B3%BC%29.pdf</t>
+          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=241014%28%EB%8F%99%EC%A0%95%29_%EB%B0%95%EC%83%81%EC%9A%B0_%EC%9E%A5%EA%B4%80__%EC%A0%95%EC%9A%A9%EC%8B%9D_%ED%95%9C%EA%B5%AD%EA%B5%90%ED%86%B5%EC%95%88%EC%A0%84%EA%B3%B5%EB%8B%A8_%EC%8B%A0%EC%9E%84_%EC%9D%B4%EC%82%AC%EC%9E%A5%EC%97%90_%EC%9E%84%EB%AA%85%EC%9E%A5_%EC%A0%84%EC%88%98.pdf</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280638&amp;num=1</t>
+          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280837&amp;num=1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>건설공사비 안정을 위한 불법·불공정행위 합동점검반 운영 착수</t>
+          <t>장거리 시외·고속버스 벽지노선 지원 확대·신설로 교통소외지역 등 이동권 보장</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>건설</t>
+          <t>교통물류</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-14</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=241011_%28%EC%A1%B0%EA%B0%84%29+%EA%B1%B4%EC%84%A4%EA%B3%B5%EC%82%AC%EB%B9%84+%EC%95%88%EC%A0%95%EC%9D%84+%EC%9C%84%ED%95%9C+%EB%B6%88%EB%B2%95%C2%B7%EB%B6%88%EA%B3%B5%EC%A0%95%ED%96%89%EC%9C%84+%ED%95%A9%EB%8F%99%EC%A0%90%EA%B2%80%EB%B0%98+%EC%9A%B4%EC%98%81+%EC%B0%A9%EC%88%98.pdf</t>
+          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=241015%28%EC%A1%B0%EA%B0%84%29+%EC%9E%A5%EA%B1%B0%EB%A6%AC+%EC%8B%9C%EC%99%B8%C2%B7%EA%B3%A0%EC%86%8D%EB%B2%84%EC%8A%A4+%EB%B2%BD%EC%A7%80%EB%85%B8%EC%84%A0+%EC%A7%80%EC%9B%90+%ED%99%95%EB%8C%80%EC%8B%A0%EC%84%A4%EB%A1%9C+%EA%B5%90%ED%86%B5%EC%86%8C%EC%99%B8%EC%A7%80%EC%97%AD+%EB%93%B1+%EC%9D%B4%EB%8F%99%EA%B6%8C+%EB%B3%B4%EC%9E%A5%28%EA%B5%90%ED%86%B5%EC%84%9C%EB%B9%84%EC%8A%A4%EC%A0%95%EC%B1%85%EA%B3%BC%29.pdf</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280639&amp;num=1</t>
+          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280797&amp;num=1</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>현대·기아 등 자발적 시정조치(리콜)</t>
+          <t>해외철도 수주지원을 위한 한 - UAE / 모로코 철도 협력 강화</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>모빌리티자동차</t>
+          <t>도로철도</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=241010%28%EC%84%9D%EA%B0%84%29+%ED%98%84%EB%8C%80++%EA%B8%B0%EC%95%84+%EB%93%B1+%EC%9E%90%EB%B0%9C%EC%A0%81+%EC%8B%9C%EC%A0%95%EC%A1%B0%EC%B9%98%28%EC%9E%90%EB%8F%99%EC%B0%A8%EC%A0%95%EC%B1%85%EA%B3%BC%29_.pdf</t>
+          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=241014%28%EC%A1%B0%EA%B0%84%29%ED%95%B4%EC%99%B8%EC%B2%A0%EB%8F%84_%EC%88%98%EC%A3%BC%EC%A7%80%EC%9B%90%EC%9D%84_%EC%9C%84%ED%95%9C_%ED%95%9C_-_UAE__%EB%AA%A8%EB%A1%9C%EC%BD%94_%EC%B2%A0%EB%8F%84_%ED%98%91%EB%A0%A5_%EA%B0%95%ED%99%94%28%EC%B2%A0%EB%8F%84%EC%A0%95%EC%B1%85%EA%B3%BC%29.pdf</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280619&amp;num=1</t>
+          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280757&amp;num=1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>시화호, 직·주·안·락(職住安樂)의 오감이 살아나는  지속가능한 도시로 만든다</t>
+          <t>리츠, 투자대상은 늘리고 규제는 줄이고</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>국토도시</t>
+          <t>주택토지</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-13</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=241010%28%EC%A1%B0%EA%B0%84%29_%EC%A7%81%C2%B7%EC%A3%BC%C2%B7%EC%95%88%C2%B7%EB%9D%BD%EC%9D%98_%EC%98%A4%EA%B0%90%EC%9D%B4_%EC%82%B4%EC%95%84%EB%82%98%EB%8A%94_%EC%A7%80%EC%86%8D%EA%B0%80%EB%8A%A5%ED%95%9C_%EB%8F%84%EC%8B%9C%EB%A1%9C_%EB%A7%8C%EB%93%A0%EB%8B%A4.%28%EC%88%98%EB%8F%84%EA%B6%8C%EC%A0%95%EC%B1%85%EA%B3%BC%29_.pdf</t>
+          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=241014%28%EC%A1%B0%EA%B0%84%29+%EB%A6%AC%EC%B8%A0%2C+%ED%88%AC%EC%9E%90%EB%8C%80%EC%83%81%EC%9D%80+%EB%8A%98%EB%A6%AC%EA%B3%A0+%EA%B7%9C%EC%A0%9C%EB%8A%94+%EC%A4%84%EC%9D%B4%EA%B3%A0%28%EB%B6%80%EB%8F%99%EC%82%B0%ED%88%AC%EC%9E%90%EC%A0%9C%EB%8F%84%EA%B3%BC%29.pdf</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280618&amp;num=1</t>
+          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280737&amp;num=1</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[장관동정] 박상우 장관,“안전·친환경, 사람 중심 건축문화 확립에 힘써야”</t>
+          <t>[장관동정] 국토교통부, 용산어린이정원 아트페스티벌 개최</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>건설</t>
+          <t>일반</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=241008%28%EB%8F%99%EC%A0%95%29_%EB%B0%95%EC%83%81%EC%9A%B0_%EC%9E%A5%EA%B4%80__%EC%95%88%EC%A0%84_%EC%B9%9C%ED%99%98%EA%B2%BD__%EC%82%AC%EB%9E%8C_%EC%A4%91%EC%8B%AC_%EA%B1%B4%EC%B6%95%EB%AC%B8%ED%99%94_%ED%99%95%EB%A6%BD%EC%97%90_%ED%9E%98%EC%8D%A8%EC%95%BC.pdf</t>
+          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=241012%28%EB%8F%99%EC%A0%95%29_%EA%B5%AD%ED%86%A0%EA%B5%90%ED%86%B5%EB%B6%80__%EC%9A%A9%EC%82%B0%EC%96%B4%EB%A6%B0%EC%9D%B4%EC%A0%95%EC%9B%90_%EC%95%84%ED%8A%B8%ED%8E%98%EC%8A%A4%ED%8B%B0%EB%B2%8C_%EA%B0%9C%EC%B5%9C.pdf</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280620&amp;num=1</t>
+          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280777&amp;num=1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[장관동정] 국토교통부, 리야드 시(市) 개발 지원 방안 협의</t>
+          <t>[차관동정] 국토교통부,“차음성능검사 내실화로 층간소음 해결해갈 것”</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>일반</t>
+          <t>건설</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-11</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=241008%28%EB%8F%99%EC%A0%95%29_%EA%B5%AD%ED%86%A0%EA%B5%90%ED%86%B5%EB%B6%80__%EB%A6%AC%EC%95%BC%EB%93%9C_%EC%8B%9C%28%E5%B8%82%29_%EA%B0%9C%EB%B0%9C_%EC%A7%80%EC%9B%90_%EB%B0%A9%EC%95%88_%ED%98%91%EC%9D%98.pdf</t>
+          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=241011%28%EB%8F%99%EC%A0%95%29_%EA%B5%AD%ED%86%A0%EA%B5%90%ED%86%B5%EB%B6%80__%EC%B0%A8%EC%9D%8C%EC%84%B1%EB%8A%A5%EA%B2%80%EC%82%AC+%EB%82%B4%EC%8B%A4%ED%99%94%EB%A1%9C+%EC%B8%B5%EA%B0%84%EC%86%8C%EC%9D%8C+%EB%AC%B8%EC%A0%9C+%ED%95%B4%EA%B2%B0%ED%95%B4%EA%B0%88+%EA%B2%83_.pdf</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280599&amp;num=1</t>
+          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280718&amp;num=1</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>‘송산그린시티’, 태양광·복합에너지스테이션 설치 등으로 온실가스 27% 감축한다</t>
+          <t>데이터 경제 시대, 과기정통부-국토부 손잡고 공개제한 데이터 활용 지원 나선다</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -728,24 +728,24 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=241009%28%EC%A1%B0%EA%B0%84%29_%EC%86%A1%EC%82%B0%EA%B7%B8%EB%A6%B0%EC%8B%9C%ED%8B%B0__%ED%83%9C%EC%96%91%EA%B4%91_%EB%B3%B5%ED%95%A9%EC%97%90%EB%84%88%EC%A7%80%EC%8A%A4%ED%85%8C%EC%9D%B4%EC%85%98_%EC%84%A4%EC%B9%98_%EB%93%B1_%EC%98%A8%EC%8B%A4%EA%B0%80%EC%8A%A4_27%ED%8D%BC%EC%84%BC%ED%8A%B8_%EA%B0%90%EC%B6%95%ED%95%9C%EB%8B%A4%28%EC%82%B0%EC%97%85%EC%9E%85%EC%A7%80%EC%A0%95%EC%B1%85%EA%B3%BC%29.pdf</t>
+          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=241011_%28%EC%84%9D%EA%B0%84%29+%EB%8D%B0%EC%9D%B4%ED%84%B0+%EA%B2%BD%EC%A0%9C+%EC%8B%9C%EB%8C%80%2C+%EA%B5%AD%ED%86%A0%EB%B6%80-%EA%B3%BC%EA%B8%B0%EC%A0%95%ED%86%B5%EB%B6%80+%EC%86%90%EC%9E%A1%EA%B3%A0+%EA%B3%B5%EA%B0%9C%EC%A0%9C%ED%95%9C+%EB%8D%B0%EC%9D%B4%ED%84%B0+%ED%99%9C%EC%9A%A9+%EC%A7%80%EC%9B%90+%EB%82%98%EC%84%A0%EB%8B%A4%28%EA%B5%AD%ED%86%A0%EC%A0%95%EB%B3%B4%EC%A0%95%EC%B1%85%EA%B3%BC%29.pdf</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280577&amp;num=1</t>
+          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280677&amp;num=1</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>어려운 지적·공간정보 전문용어 국민이 쉽게 알 수 있도록 바꾼다</t>
+          <t>[장관동정] 국토교통부, 쿠알라룸푸르와 도시 협력 강화</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -755,132 +755,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-10</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=241004%28%EC%A1%B0%EA%B0%84%29+%EC%96%B4%EB%A0%A4%EC%9A%B4+%EC%A7%80%EC%A0%81%C2%B7%EA%B3%B5%EA%B0%84%EC%A0%95%EB%B3%B4+%EC%A0%84%EB%AC%B8%EC%9A%A9%EC%96%B4+%EA%B5%AD%EB%AF%BC%EC%9D%B4+%EC%89%BD%EA%B2%8C+%EC%95%8C+%EC%88%98+%EC%9E%88%EB%8F%84%EB%A1%9D+%EB%B0%94%EA%BE%BC%EB%8B%A4%28%EA%B3%B5%EA%B0%84%EC%A0%95%EB%B3%B4%EC%A0%9C%EB%8F%84%EA%B3%BC%29.pdf</t>
+          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=241010%28%EB%8F%99%EC%A0%95%29_%EA%B5%AD%ED%86%A0%EA%B5%90%ED%86%B5%EB%B6%80__%EC%BF%A0%EC%95%8C%EB%9D%BC%EB%A3%B8%ED%91%B8%EB%A5%B4%EC%99%80_%EB%8F%84%EC%8B%9C_%ED%98%91%EB%A0%A5_%EA%B0%95%ED%99%94.pdf</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280498&amp;num=1</t>
+          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280657&amp;num=1</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>사업계획 무단 변경 등 「항공사업법」 위반 항공사에 과징금 및 과태료 부과</t>
+          <t>14일부터 한 달간 불법자동차 일제단속</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>항공</t>
+          <t>모빌리티자동차</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-10</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=241004%28%EC%A1%B0%EA%B0%84%29+%EC%82%AC%EC%97%85%EA%B3%84%ED%9A%8D+%EB%AC%B4%EB%8B%A8+%EB%B3%80%EA%B2%BD+%EB%93%B1+%E3%80%8C%ED%95%AD%EA%B3%B5%EC%82%AC%EC%97%85%EB%B2%95%E3%80%8D+%EC%9C%84%EB%B0%98+%ED%95%AD%EA%B3%B5%EC%82%AC%EC%97%90+%EA%B3%BC%EC%A7%95%EA%B8%88+%EB%B0%8F+%EA%B3%BC%ED%83%9C%EB%A3%8C+%EB%B6%80%EA%B3%BC%28%EA%B5%AD%EC%A0%9C%ED%95%AD%EA%B3%B5%EA%B3%BC%29.pdf</t>
+          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=241011%28%EC%A1%B0%EA%B0%84%29+14%EC%9D%BC%EB%B6%80%ED%84%B0+%ED%95%9C+%EB%8B%AC%EA%B0%84+%EB%B6%88%EB%B2%95%EC%9E%90%EB%8F%99%EC%B0%A8+%EC%9D%BC%EC%A0%9C%EB%8B%A8%EC%86%8D%28%EC%9E%90%EB%8F%99%EC%B0%A8%EC%9A%B4%EC%98%81%EB%B3%B4%ED%97%98%EA%B3%BC%29.pdf</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280497&amp;num=1</t>
+          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280638&amp;num=1</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>수도권 주택거래 현장점검, 기획조사를 통해 397건 위법 의심거래 적발</t>
+          <t>건설공사비 안정을 위한 불법·불공정행위 합동점검반 운영 착수</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>주택토지</t>
+          <t>건설</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-10</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=241004%28%EC%A1%B0%EA%B0%84%29+%EC%88%98%EB%8F%84%EA%B6%8C+%EC%A3%BC%ED%83%9D%EA%B1%B0%EB%9E%98+%ED%98%84%EC%9E%A5%EC%A0%90%EA%B2%80++%EA%B8%B0%ED%9A%8D%EC%A1%B0%EC%82%AC%EB%A5%BC+%ED%86%B5%ED%95%B4+397%EA%B1%B4+%EC%9C%84%EB%B2%95+%EC%9D%98%EC%8B%AC%EA%B1%B0%EB%9E%98+%EC%A0%81%EB%B0%9C%28%EB%B6%80%EB%8F%99%EC%82%B0%EC%86%8C%EB%B9%84%EC%9E%90%EB%B3%B4%ED%98%B8%EA%B8%B0%ED%9A%8D%EB%8B%A8%29.pdf</t>
+          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=241011_%28%EC%A1%B0%EA%B0%84%29+%EA%B1%B4%EC%84%A4%EA%B3%B5%EC%82%AC%EB%B9%84+%EC%95%88%EC%A0%95%EC%9D%84+%EC%9C%84%ED%95%9C+%EB%B6%88%EB%B2%95%C2%B7%EB%B6%88%EA%B3%B5%EC%A0%95%ED%96%89%EC%9C%84+%ED%95%A9%EB%8F%99%EC%A0%90%EA%B2%80%EB%B0%98+%EC%9A%B4%EC%98%81+%EC%B0%A9%EC%88%98.pdf</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280458&amp;num=1</t>
+          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280639&amp;num=1</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>전세사기피해지원위원회 피해자등 1,554건 결정</t>
+          <t>현대·기아 등 자발적 시정조치(리콜)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>주택토지</t>
+          <t>모빌리티자동차</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-10</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=241003%28%EC%84%9D%EA%B0%84%29+%EC%A0%84%EC%84%B8%EC%82%AC%EA%B8%B0%ED%94%BC%ED%95%B4%EC%A7%80%EC%9B%90%EC%9C%84%EC%9B%90%ED%9A%8C+%ED%94%BC%ED%95%B4%EC%9E%90%EB%93%B1+1%2C554%EA%B1%B4+%EA%B2%B0%EC%A0%95%28%ED%94%BC%ED%95%B4%EC%A7%80%EC%9B%90%EC%B4%9D%EA%B4%84%EA%B3%BC%29_.pdf</t>
+          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=241010%28%EC%84%9D%EA%B0%84%29+%ED%98%84%EB%8C%80++%EA%B8%B0%EC%95%84+%EB%93%B1+%EC%9E%90%EB%B0%9C%EC%A0%81+%EC%8B%9C%EC%A0%95%EC%A1%B0%EC%B9%98%28%EC%9E%90%EB%8F%99%EC%B0%A8%EC%A0%95%EC%B1%85%EA%B3%BC%29_.pdf</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280477&amp;num=1</t>
+          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280619&amp;num=1</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2일 부산 사상~하단선 지하안전 특별점검</t>
+          <t>시화호, 직·주·안·락(職住安樂)의 오감이 살아나는  지속가능한 도시로 만든다</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>건설</t>
+          <t>국토도시</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-09</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=241003%28%EC%A1%B0%EA%B0%84%29+2%EC%9D%BC+%EB%B6%80%EC%82%B0+%EC%82%AC%EC%83%81%7E%ED%95%98%EB%8B%A8%EC%84%A0+%EC%A7%80%ED%95%98%EC%95%88%EC%A0%84+%ED%8A%B9%EB%B3%84%EC%A0%90%EA%B2%80%28%EA%B1%B4%EC%84%A4%EC%95%88%EC%A0%84%EA%B3%BC%29.pdf</t>
+          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=241010%28%EC%A1%B0%EA%B0%84%29_%EC%A7%81%C2%B7%EC%A3%BC%C2%B7%EC%95%88%C2%B7%EB%9D%BD%EC%9D%98_%EC%98%A4%EA%B0%90%EC%9D%B4_%EC%82%B4%EC%95%84%EB%82%98%EB%8A%94_%EC%A7%80%EC%86%8D%EA%B0%80%EB%8A%A5%ED%95%9C_%EB%8F%84%EC%8B%9C%EB%A1%9C_%EB%A7%8C%EB%93%A0%EB%8B%A4.%28%EC%88%98%EB%8F%84%EA%B6%8C%EC%A0%95%EC%B1%85%EA%B3%BC%29_.pdf</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280457&amp;num=1</t>
+          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280618&amp;num=1</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>공사비 3대 안정화 방안, ’26년까지 공사비 상승률 2% 내외 관리</t>
+          <t>[장관동정] 박상우 장관,“안전·친환경, 사람 중심 건축문화 확립에 힘써야”</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -890,51 +890,51 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=%281002%29%28%EC%84%9D%EA%B0%84%29_%EA%B3%B5%EC%82%AC%EB%B9%84_3%EB%8C%80_%EC%95%88%EC%A0%95%ED%99%94_%ED%94%84%EB%A1%9C%EC%A0%9D%ED%8A%B8_%EA%B0%80%EB%8F%99__%E2%80%9926%EB%85%84%EA%B9%8C%EC%A7%80_%EA%B3%B5%EC%82%AC%EB%B9%84_%EC%83%81%EC%8A%B9%EB%A5%A0_2%ED%8D%BC%EC%84%BC%ED%8A%B8_%EB%82%B4%EC%99%B8_%EA%B4%80%EB%A6%AC%28%EA%B1%B4%EC%84%A4%EC%82%B0%EC%97%85%EA%B3%BC%29.pdf</t>
+          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=241008%28%EB%8F%99%EC%A0%95%29_%EB%B0%95%EC%83%81%EC%9A%B0_%EC%9E%A5%EA%B4%80__%EC%95%88%EC%A0%84_%EC%B9%9C%ED%99%98%EA%B2%BD__%EC%82%AC%EB%9E%8C_%EC%A4%91%EC%8B%AC_%EA%B1%B4%EC%B6%95%EB%AC%B8%ED%99%94_%ED%99%95%EB%A6%BD%EC%97%90_%ED%9E%98%EC%8D%A8%EC%95%BC.pdf</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280357&amp;num=1</t>
+          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280620&amp;num=1</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>글로벌 철도연수과정 본격 시작, 한국형 고속철 차량 수출 성과 이어간다</t>
+          <t>[장관동정] 국토교통부, 리야드 시(市) 개발 지원 방안 협의</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>도로철도</t>
+          <t>일반</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-08</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=241002%28%EC%A1%B0%EA%B0%84%29+%EA%B8%80%EB%A1%9C%EB%B2%8C+%EC%B2%A0%EB%8F%84%EC%97%B0%EC%88%98%EA%B3%BC%EC%A0%95+%EB%B3%B8%EA%B2%A9%EC%8B%9C%EC%9E%91%2C+%ED%95%9C%EA%B5%AD%ED%98%95+%EA%B3%A0%EC%86%8D%EC%B2%A0+%EC%B0%A8%EB%9F%89+%EC%88%98%EC%B6%9C+%EC%84%B1%EA%B3%BC+%EC%9D%B4%EC%96%B4%EA%B0%84%EB%8B%A4%28%EC%B2%A0%EB%8F%84%EC%A0%95%EC%B1%85%EA%B3%BC%29.pdf</t>
+          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=241008%28%EB%8F%99%EC%A0%95%29_%EA%B5%AD%ED%86%A0%EA%B5%90%ED%86%B5%EB%B6%80__%EB%A6%AC%EC%95%BC%EB%93%9C_%EC%8B%9C%28%E5%B8%82%29_%EA%B0%9C%EB%B0%9C_%EC%A7%80%EC%9B%90_%EB%B0%A9%EC%95%88_%ED%98%91%EC%9D%98.pdf</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280417&amp;num=1</t>
+          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280599&amp;num=1</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>‘국토조사 성과’ 경진대회 개최 … 7일부터 활용 및 아이디어 공모</t>
+          <t>‘송산그린시티’, 태양광·복합에너지스테이션 설치 등으로 온실가스 27% 감축한다</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -944,132 +944,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-08</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=241001%28%EC%A1%B0%EA%B0%84%29__%EA%B5%AD%ED%86%A0%EC%A1%B0%EC%82%AC_%EC%84%B1%EA%B3%BC_%EA%B2%BD%EC%A7%84%EB%8C%80%ED%9A%8C_%EA%B0%9C%EC%B5%9C_7%EC%9D%BC%EB%B6%80%ED%84%B0_%ED%99%9C%EC%9A%A9_%EB%B0%8F_%EC%95%84%EC%9D%B4%EB%94%94%EC%96%B4_%EA%B3%B5%EB%AA%A8%28%EA%B5%AD%ED%86%A0%EC%A1%B0%EC%82%AC%EA%B3%BC%29.pdf</t>
+          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=241009%28%EC%A1%B0%EA%B0%84%29_%EC%86%A1%EC%82%B0%EA%B7%B8%EB%A6%B0%EC%8B%9C%ED%8B%B0__%ED%83%9C%EC%96%91%EA%B4%91_%EB%B3%B5%ED%95%A9%EC%97%90%EB%84%88%EC%A7%80%EC%8A%A4%ED%85%8C%EC%9D%B4%EC%85%98_%EC%84%A4%EC%B9%98_%EB%93%B1_%EC%98%A8%EC%8B%A4%EA%B0%80%EC%8A%A4_27%ED%8D%BC%EC%84%BC%ED%8A%B8_%EA%B0%90%EC%B6%95%ED%95%9C%EB%8B%A4%28%EC%82%B0%EC%97%85%EC%9E%85%EC%A7%80%EC%A0%95%EC%B1%85%EA%B3%BC%29.pdf</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280398&amp;num=1</t>
+          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280577&amp;num=1</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>배달종사자 보험료 최대 45% 낮아진다</t>
+          <t>어려운 지적·공간정보 전문용어 국민이 쉽게 알 수 있도록 바꾼다</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>일반</t>
+          <t>국토도시</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-03</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=241001%28%EC%A1%B0%EA%B0%84%29_%EB%B0%B0%EB%8B%AC%EC%A2%85%EC%82%AC%EC%9E%90_%EB%B3%B4%ED%97%98%EB%A3%8C_%EC%B5%9C%EB%8C%80_45%ED%8D%BC%EC%84%BC%ED%8A%B8_%EB%82%AE%EC%95%84%EC%A7%84%EB%8B%A4%28%EC%83%9D%ED%99%9C%EB%AC%BC%EB%A5%98%EC%A0%95%EC%B1%85%ED%8C%80%29.pdf</t>
+          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=241004%28%EC%A1%B0%EA%B0%84%29+%EC%96%B4%EB%A0%A4%EC%9A%B4+%EC%A7%80%EC%A0%81%C2%B7%EA%B3%B5%EA%B0%84%EC%A0%95%EB%B3%B4+%EC%A0%84%EB%AC%B8%EC%9A%A9%EC%96%B4+%EA%B5%AD%EB%AF%BC%EC%9D%B4+%EC%89%BD%EA%B2%8C+%EC%95%8C+%EC%88%98+%EC%9E%88%EB%8F%84%EB%A1%9D+%EB%B0%94%EA%BE%BC%EB%8B%A4%28%EA%B3%B5%EA%B0%84%EC%A0%95%EB%B3%B4%EC%A0%9C%EB%8F%84%EA%B3%BC%29.pdf</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280337&amp;num=1</t>
+          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280498&amp;num=1</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>‘24년 8월 주택 통계</t>
+          <t>사업계획 무단 변경 등 「항공사업법」 위반 항공사에 과징금 및 과태료 부과</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>주택토지</t>
+          <t>항공</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-03</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=240930%28%EC%84%9D%EA%B0%84%29_%E2%80%9824%EB%85%84_8%EC%9B%94_%EC%A3%BC%ED%83%9D_%ED%86%B5%EA%B3%84%28%EC%A3%BC%ED%83%9D%EC%A0%95%EC%B1%85%EA%B3%BC%29.pdf</t>
+          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=241004%28%EC%A1%B0%EA%B0%84%29+%EC%82%AC%EC%97%85%EA%B3%84%ED%9A%8D+%EB%AC%B4%EB%8B%A8+%EB%B3%80%EA%B2%BD+%EB%93%B1+%E3%80%8C%ED%95%AD%EA%B3%B5%EC%82%AC%EC%97%85%EB%B2%95%E3%80%8D+%EC%9C%84%EB%B0%98+%ED%95%AD%EA%B3%B5%EC%82%AC%EC%97%90+%EA%B3%BC%EC%A7%95%EA%B8%88+%EB%B0%8F+%EA%B3%BC%ED%83%9C%EB%A3%8C+%EB%B6%80%EA%B3%BC%28%EA%B5%AD%EC%A0%9C%ED%95%AD%EA%B3%B5%EA%B3%BC%29.pdf</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280277&amp;num=1</t>
+          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280497&amp;num=1</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1기 신도시 선도지구 공모 접수 결과 발표</t>
+          <t>수도권 주택거래 현장점검, 기획조사를 통해 397건 위법 의심거래 적발</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>국토도시</t>
+          <t>주택토지</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-10-03</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=240930%28%EC%A1%B0%EA%B0%84%29_1%EA%B8%B0_%EC%8B%A0%EB%8F%84%EC%8B%9C_%EC%84%A0%EB%8F%84%EC%A7%80%EA%B5%AC_%EA%B3%B5%EB%AA%A8_%EC%A0%91%EC%88%98_%EA%B2%B0%EA%B3%BC_%EB%B0%9C%ED%91%9C%28%EB%8F%84%EC%8B%9C%EC%A0%95%EB%B9%84%EA%B8%B0%ED%9A%8D%EA%B3%BC_%EB%93%B1%29_.pdf</t>
+          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=241004%28%EC%A1%B0%EA%B0%84%29+%EC%88%98%EB%8F%84%EA%B6%8C+%EC%A3%BC%ED%83%9D%EA%B1%B0%EB%9E%98+%ED%98%84%EC%9E%A5%EC%A0%90%EA%B2%80++%EA%B8%B0%ED%9A%8D%EC%A1%B0%EC%82%AC%EB%A5%BC+%ED%86%B5%ED%95%B4+397%EA%B1%B4+%EC%9C%84%EB%B2%95+%EC%9D%98%EC%8B%AC%EA%B1%B0%EB%9E%98+%EC%A0%81%EB%B0%9C%28%EB%B6%80%EB%8F%99%EC%82%B0%EC%86%8C%EB%B9%84%EC%9E%90%EB%B3%B4%ED%98%B8%EA%B8%B0%ED%9A%8D%EB%8B%A8%29.pdf</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280317&amp;num=1</t>
+          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280458&amp;num=1</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>지역에서도 ‘우즈베키스탄’ 갈 수 있는 지방공항 전용 등 운수권 확대</t>
+          <t>전세사기피해지원위원회 피해자등 1,554건 결정</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>항공</t>
+          <t>주택토지</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-10-03</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=240930%28%EC%A1%B0%EA%B0%84%29+%EC%A7%80%EC%97%AD%EC%97%90%EC%84%9C%EB%8F%84+%E2%80%98%EC%9A%B0%EC%A6%88%EB%B2%A0%ED%82%A4%EC%8A%A4%ED%83%84%E2%80%99+%EA%B0%88+%EC%88%98+%EC%9E%88%EB%8A%94+%EC%A7%80%EB%B0%A9%EA%B3%B5%ED%95%AD+%EC%A0%84%EC%9A%A9+%EB%93%B1+%EC%9A%B4%EC%88%98%EA%B6%8C+%ED%99%95%EB%8C%80%28%EA%B5%AD%EC%A0%9C%ED%95%AD%EA%B3%B5%EA%B3%BC%29.pdf</t>
+          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=241003%28%EC%84%9D%EA%B0%84%29+%EC%A0%84%EC%84%B8%EC%82%AC%EA%B8%B0%ED%94%BC%ED%95%B4%EC%A7%80%EC%9B%90%EC%9C%84%EC%9B%90%ED%9A%8C+%ED%94%BC%ED%95%B4%EC%9E%90%EB%93%B1+1%2C554%EA%B1%B4+%EA%B2%B0%EC%A0%95%28%ED%94%BC%ED%95%B4%EC%A7%80%EC%9B%90%EC%B4%9D%EA%B4%84%EA%B3%BC%29_.pdf</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280297&amp;num=1</t>
+          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280477&amp;num=1</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>‘24.2분기 건설공사 계약액 발표</t>
+          <t>2일 부산 사상~하단선 지하안전 특별점검</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1079,24 +1079,24 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-10-02</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=240927%28%EC%A1%B0%EA%B0%84%29_%E2%80%9824.2%EB%B6%84%EA%B8%B0_%EA%B1%B4%EC%84%A4%EA%B3%B5%EC%82%AC_%EA%B3%84%EC%95%BD%EC%95%A1_%EB%B0%9C%ED%91%9C%28%EA%B1%B4%EC%84%A4%EC%A0%95%EC%B1%85%EA%B3%BC%29.pdf</t>
+          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=241003%28%EC%A1%B0%EA%B0%84%29+2%EC%9D%BC+%EB%B6%80%EC%82%B0+%EC%82%AC%EC%83%81%7E%ED%95%98%EB%8B%A8%EC%84%A0+%EC%A7%80%ED%95%98%EC%95%88%EC%A0%84+%ED%8A%B9%EB%B3%84%EC%A0%90%EA%B2%80%28%EA%B1%B4%EC%84%A4%EC%95%88%EC%A0%84%EA%B3%BC%29.pdf</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280220&amp;num=1</t>
+          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280457&amp;num=1</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>27일 ‘지하안전관리체계 TF’ 출범</t>
+          <t>공사비 3대 안정화 방안, ’26년까지 공사비 상승률 2% 내외 관리</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1106,78 +1106,78 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-10-02</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=240927%28%EC%A1%B0%EA%B0%84%29_27%EC%9D%BC_%E2%80%98%EC%A7%80%ED%95%98%EC%95%88%EC%A0%84%EA%B4%80%EB%A6%AC%EC%B2%B4%EA%B3%84_TF%E2%80%99_%EC%B6%9C%EB%B2%94%28%EA%B1%B4%EC%84%A4%EC%95%88%EC%A0%84%EA%B3%BC%29.pdf</t>
+          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=%281002%29%28%EC%84%9D%EA%B0%84%29_%EA%B3%B5%EC%82%AC%EB%B9%84_3%EB%8C%80_%EC%95%88%EC%A0%95%ED%99%94_%ED%94%84%EB%A1%9C%EC%A0%9D%ED%8A%B8_%EA%B0%80%EB%8F%99__%E2%80%9926%EB%85%84%EA%B9%8C%EC%A7%80_%EA%B3%B5%EC%82%AC%EB%B9%84_%EC%83%81%EC%8A%B9%EB%A5%A0_2%ED%8D%BC%EC%84%BC%ED%8A%B8_%EB%82%B4%EC%99%B8_%EA%B4%80%EB%A6%AC%28%EA%B1%B4%EC%84%A4%EC%82%B0%EC%97%85%EA%B3%BC%29.pdf</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280219&amp;num=1</t>
+          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280357&amp;num=1</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>신유형 장기임대주택 활성화 위해 금융업계 소통 강화</t>
+          <t>글로벌 철도연수과정 본격 시작, 한국형 고속철 차량 수출 성과 이어간다</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>주택토지</t>
+          <t>도로철도</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=240927%28%EC%A1%B0%EA%B0%84%29_%EC%8B%A0%EC%9C%A0%ED%98%95_%EC%9E%A5%EA%B8%B0%EC%9E%84%EB%8C%80%EC%A3%BC%ED%83%9D_%ED%99%9C%EC%84%B1%ED%99%94_%EC%9C%84%ED%95%B4_%EA%B8%88%EC%9C%B5%EC%97%85%EA%B3%84_%EC%86%8C%ED%86%B5_%EA%B0%95%ED%99%94%28%EB%AF%BC%EA%B0%84%EC%9E%84%EB%8C%80%EC%A0%95%EC%B1%85%EA%B3%BC%29.pdf</t>
+          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=241002%28%EC%A1%B0%EA%B0%84%29+%EA%B8%80%EB%A1%9C%EB%B2%8C+%EC%B2%A0%EB%8F%84%EC%97%B0%EC%88%98%EA%B3%BC%EC%A0%95+%EB%B3%B8%EA%B2%A9%EC%8B%9C%EC%9E%91%2C+%ED%95%9C%EA%B5%AD%ED%98%95+%EA%B3%A0%EC%86%8D%EC%B2%A0+%EC%B0%A8%EB%9F%89+%EC%88%98%EC%B6%9C+%EC%84%B1%EA%B3%BC+%EC%9D%B4%EC%96%B4%EA%B0%84%EB%8B%A4%28%EC%B2%A0%EB%8F%84%EC%A0%95%EC%B1%85%EA%B3%BC%29.pdf</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280218&amp;num=1</t>
+          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280417&amp;num=1</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>청년, 고령자 주거 지원 강화한다  … 27일부터 특화형 공공임대주택 공모</t>
+          <t>‘국토조사 성과’ 경진대회 개최 … 7일부터 활용 및 아이디어 공모</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>주택토지</t>
+          <t>국토도시</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-30</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=240927%28%EC%A1%B0%EA%B0%84%29_%EC%B2%AD%EB%85%84__%EA%B3%A0%EB%A0%B9%EC%9E%90_%EC%A3%BC%EA%B1%B0_%EC%A7%80%EC%9B%90_%EA%B0%95%ED%99%94%ED%95%9C%EB%8B%A4%28%EC%B2%AD%EB%85%84%EC%A3%BC%EA%B1%B0%EC%A0%95%EC%B1%85%EA%B3%BC%29.pdf</t>
+          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=241001%28%EC%A1%B0%EA%B0%84%29__%EA%B5%AD%ED%86%A0%EC%A1%B0%EC%82%AC_%EC%84%B1%EA%B3%BC_%EA%B2%BD%EC%A7%84%EB%8C%80%ED%9A%8C_%EA%B0%9C%EC%B5%9C_7%EC%9D%BC%EB%B6%80%ED%84%B0_%ED%99%9C%EC%9A%A9_%EB%B0%8F_%EC%95%84%EC%9D%B4%EB%94%94%EC%96%B4_%EA%B3%B5%EB%AA%A8%28%EA%B5%AD%ED%86%A0%EC%A1%B0%EC%82%AC%EA%B3%BC%29.pdf</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280217&amp;num=1</t>
+          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280398&amp;num=1</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>[장관동정] 박상우 장관, 투르크메니스탄과 광범위한 협력 시동</t>
+          <t>배달종사자 보험료 최대 45% 낮아진다</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1187,78 +1187,78 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-30</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=240926%28%EB%8F%99%EC%A0%95%29_%EB%B0%95%EC%83%81%EC%9A%B0_%EC%9E%A5%EA%B4%80__%ED%88%AC%EB%A5%B4%ED%81%AC%EB%A9%94%EB%8B%88%EC%8A%A4%ED%83%84%EA%B3%BC_%EA%B4%91%EB%B2%94%EC%9C%84%ED%95%9C_%ED%98%91%EB%A0%A5_%EC%8B%9C%EB%8F%99.pdf</t>
+          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=241001%28%EC%A1%B0%EA%B0%84%29_%EB%B0%B0%EB%8B%AC%EC%A2%85%EC%82%AC%EC%9E%90_%EB%B3%B4%ED%97%98%EB%A3%8C_%EC%B5%9C%EB%8C%80_45%ED%8D%BC%EC%84%BC%ED%8A%B8_%EB%82%AE%EC%95%84%EC%A7%84%EB%8B%A4%28%EC%83%9D%ED%99%9C%EB%AC%BC%EB%A5%98%EC%A0%95%EC%B1%85%ED%8C%80%29.pdf</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280237&amp;num=1</t>
+          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280337&amp;num=1</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2024 코리아 튜닝카 페스티벌 열린다</t>
+          <t>‘24년 8월 주택 통계</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>모빌리티자동차</t>
+          <t>주택토지</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-30</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=240926%28%EC%84%9D%EA%B0%84%29+2024+%EC%BD%94%EB%A6%AC%EC%95%84+%ED%8A%9C%EB%8B%9D%EC%B9%B4+%ED%8E%98%EC%8A%A4%ED%8B%B0%EB%B2%8C+%EC%97%B4%EB%A6%B0%EB%8B%A4%28%EC%9E%90%EB%8F%99%EC%B0%A8%EC%A0%95%EC%B1%85%EA%B3%BC%29.pdf</t>
+          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=240930%28%EC%84%9D%EA%B0%84%29_%E2%80%9824%EB%85%84_8%EC%9B%94_%EC%A3%BC%ED%83%9D_%ED%86%B5%EA%B3%84%28%EC%A3%BC%ED%83%9D%EC%A0%95%EC%B1%85%EA%B3%BC%29.pdf</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280198&amp;num=1</t>
+          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280277&amp;num=1</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>26일 주택공급 활성화 위한 정책세미나 개최</t>
+          <t>1기 신도시 선도지구 공모 접수 결과 발표</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>주택토지</t>
+          <t>국토도시</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-29</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=240926%28%EC%A1%B0%EA%B0%84%29_26%EC%9D%BC_%EC%A3%BC%ED%83%9D%EA%B3%B5%EA%B8%89_%ED%99%9C%EC%84%B1%ED%99%94_%EC%9C%84%ED%95%9C_%EC%A0%95%EC%B1%85%EC%84%B8%EB%AF%B8%EB%82%98_%EA%B0%9C%EC%B5%9C%28%EC%A3%BC%ED%83%9D%EC%A0%95%EC%B1%85%EA%B3%BC%29.pdf</t>
+          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=240930%28%EC%A1%B0%EA%B0%84%29_1%EA%B8%B0_%EC%8B%A0%EB%8F%84%EC%8B%9C_%EC%84%A0%EB%8F%84%EC%A7%80%EA%B5%AC_%EA%B3%B5%EB%AA%A8_%EC%A0%91%EC%88%98_%EA%B2%B0%EA%B3%BC_%EB%B0%9C%ED%91%9C%28%EB%8F%84%EC%8B%9C%EC%A0%95%EB%B9%84%EA%B8%B0%ED%9A%8D%EA%B3%BC_%EB%93%B1%29_.pdf</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280179&amp;num=1</t>
+          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280317&amp;num=1</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>더 편리한 공항, 이용자들이 직접 만든다</t>
+          <t>지역에서도 ‘우즈베키스탄’ 갈 수 있는 지방공항 전용 등 운수권 확대</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1268,51 +1268,51 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-29</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=240926%28%EC%A1%B0%EA%B0%84%29_%EB%8D%94_%ED%8E%B8%EB%A6%AC%ED%95%9C_%EA%B3%B5%ED%95%AD__%EC%9D%B4%EC%9A%A9%EC%9E%90%EB%93%A4%EC%9D%B4_%EC%A7%81%EC%A0%91_%EB%A7%8C%EB%93%A0%EB%8B%A4%28%EA%B3%B5%ED%95%AD%EC%9A%B4%EC%98%81%EA%B3%BC%29.pdf</t>
+          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=240930%28%EC%A1%B0%EA%B0%84%29+%EC%A7%80%EC%97%AD%EC%97%90%EC%84%9C%EB%8F%84+%E2%80%98%EC%9A%B0%EC%A6%88%EB%B2%A0%ED%82%A4%EC%8A%A4%ED%83%84%E2%80%99+%EA%B0%88+%EC%88%98+%EC%9E%88%EB%8A%94+%EC%A7%80%EB%B0%A9%EA%B3%B5%ED%95%AD+%EC%A0%84%EC%9A%A9+%EB%93%B1+%EC%9A%B4%EC%88%98%EA%B6%8C+%ED%99%95%EB%8C%80%28%EA%B5%AD%EC%A0%9C%ED%95%AD%EA%B3%B5%EA%B3%BC%29.pdf</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280178&amp;num=1</t>
+          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280297&amp;num=1</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3%대 금리, 청약예·부금 종합저축으로 전환 가능…‘청약통장’ 더 쏠쏠해진다</t>
+          <t>‘24.2분기 건설공사 계약액 발표</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>주택토지</t>
+          <t>건설</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-26</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=240926%28%EC%A1%B0%EA%B0%84%29_3%ED%8D%BC%EC%84%BC%ED%8A%B8%EB%8C%80_%EA%B8%88%EB%A6%AC__%EC%B2%AD%EC%95%BD%EC%98%88%EB%B6%80%EA%B8%88_%EC%A2%85%ED%95%A9%EC%A0%80%EC%B6%95%EC%9C%BC%EB%A1%9C_%EC%A0%84%ED%99%98_%EA%B0%80%EB%8A%A5_%E2%80%98%EC%B2%AD%EC%95%BD%ED%86%B5%EC%9E%A5%E2%80%99_%EB%8D%94_%EC%8F%A0%EC%8F%A0%ED%95%B4%EC%A7%84%EB%8B%A4%28%EC%A3%BC%ED%83%9D%EA%B8%B0%EA%B8%88%EA%B3%BC%29.pdf</t>
+          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=240927%28%EC%A1%B0%EA%B0%84%29_%E2%80%9824.2%EB%B6%84%EA%B8%B0_%EA%B1%B4%EC%84%A4%EA%B3%B5%EC%82%AC_%EA%B3%84%EC%95%BD%EC%95%A1_%EB%B0%9C%ED%91%9C%28%EA%B1%B4%EC%84%A4%EC%A0%95%EC%B1%85%EA%B3%BC%29.pdf</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280177&amp;num=1</t>
+          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280220&amp;num=1</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>굴착공사장 지하안전 고강도 특별점검</t>
+          <t>27일 ‘지하안전관리체계 TF’ 출범</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1322,186 +1322,186 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-26</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=240925%28%EC%84%9D%EA%B0%84%29+%EA%B5%B4%EC%B0%A9%EA%B3%B5%EC%82%AC%EC%9E%A5+%EC%A7%80%ED%95%98%EC%95%88%EC%A0%84+%EA%B3%A0%EA%B0%95%EB%8F%84+%ED%8A%B9%EB%B3%84%EC%A0%90%EA%B2%80%28%EA%B1%B4%EC%84%A4%EC%95%88%EC%A0%84%EA%B3%BC%29.pdf</t>
+          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=240927%28%EC%A1%B0%EA%B0%84%29_27%EC%9D%BC_%E2%80%98%EC%A7%80%ED%95%98%EC%95%88%EC%A0%84%EA%B4%80%EB%A6%AC%EC%B2%B4%EA%B3%84_TF%E2%80%99_%EC%B6%9C%EB%B2%94%28%EA%B1%B4%EC%84%A4%EC%95%88%EC%A0%84%EA%B3%BC%29.pdf</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280137&amp;num=1</t>
+          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280219&amp;num=1</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>현대·기아 등 자발적 시정조치(리콜)</t>
+          <t>신유형 장기임대주택 활성화 위해 금융업계 소통 강화</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>모빌리티자동차</t>
+          <t>주택토지</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-26</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=240925%28%EC%84%9D%EA%B0%84%29+%ED%98%84%EB%8C%80%2C+%EA%B8%B0%EC%95%84+%EB%93%B1+%EC%9E%90%EB%B0%9C%EC%A0%81+%EC%8B%9C%EC%A0%95%EC%A1%B0%EC%B9%98%28%EC%9E%90%EB%8F%99%EC%B0%A8%EC%A0%95%EC%B1%85%EA%B3%BC%29_.pdf</t>
+          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=240927%28%EC%A1%B0%EA%B0%84%29_%EC%8B%A0%EC%9C%A0%ED%98%95_%EC%9E%A5%EA%B8%B0%EC%9E%84%EB%8C%80%EC%A3%BC%ED%83%9D_%ED%99%9C%EC%84%B1%ED%99%94_%EC%9C%84%ED%95%B4_%EA%B8%88%EC%9C%B5%EC%97%85%EA%B3%84_%EC%86%8C%ED%86%B5_%EA%B0%95%ED%99%94%28%EB%AF%BC%EA%B0%84%EC%9E%84%EB%8C%80%EC%A0%95%EC%B1%85%EA%B3%BC%29.pdf</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280117&amp;num=1</t>
+          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280218&amp;num=1</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1기 신도시 5곳 총 14.2만호 추가 공급기반 마련   일산신도시 기본계획 25일 공개(아파트 기준용적률 300%)</t>
+          <t>청년, 고령자 주거 지원 강화한다  … 27일부터 특화형 공공임대주택 공모</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>국토도시</t>
+          <t>주택토지</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-26</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=240925%28%EC%A1%B0%EA%B0%84%29+1%EA%B8%B0+%EC%8B%A0%EB%8F%84%EC%8B%9C+5%EA%B3%B3+%EC%B4%9D+14.2%EB%A7%8C%ED%98%B8+%EA%B3%B5%EA%B8%89%EA%B8%B0%EB%B0%98+%EC%A0%9C%EC%8B%9C%28%EB%8F%84%EC%8B%9C%EC%A0%95%EB%B9%84%EA%B8%B0%ED%9A%8D%EA%B3%BC%29_.pdf</t>
+          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=240927%28%EC%A1%B0%EA%B0%84%29_%EC%B2%AD%EB%85%84__%EA%B3%A0%EB%A0%B9%EC%9E%90_%EC%A3%BC%EA%B1%B0_%EC%A7%80%EC%9B%90_%EA%B0%95%ED%99%94%ED%95%9C%EB%8B%A4%28%EC%B2%AD%EB%85%84%EC%A3%BC%EA%B1%B0%EC%A0%95%EC%B1%85%EA%B3%BC%29.pdf</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280197&amp;num=1</t>
+          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280217&amp;num=1</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>인천공항 하늘길 넓어진다…  수도권 민·군공역 조정</t>
+          <t>[장관동정] 박상우 장관, 투르크메니스탄과 광범위한 협력 시동</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>항공</t>
+          <t>일반</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-26</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=240925%28%EC%A1%B0%EA%B0%84%29_%EC%9D%B8%EC%B2%9C%EA%B3%B5%ED%95%AD_%ED%95%98%EB%8A%98%EA%B8%B8_%EB%84%93%EC%96%B4%EC%A7%84%EB%8B%A4_%EC%88%98%EB%8F%84%EA%B6%8C_%EB%AF%BC%EA%B5%B0%EA%B3%B5%EC%97%AD_%EC%A1%B0%EC%A0%95%28%ED%95%AD%EA%B3%B5%EA%B5%90%ED%86%B5%EA%B3%BC%29.pdf</t>
+          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=240926%28%EB%8F%99%EC%A0%95%29_%EB%B0%95%EC%83%81%EC%9A%B0_%EC%9E%A5%EA%B4%80__%ED%88%AC%EB%A5%B4%ED%81%AC%EB%A9%94%EB%8B%88%EC%8A%A4%ED%83%84%EA%B3%BC_%EA%B4%91%EB%B2%94%EC%9C%84%ED%95%9C_%ED%98%91%EB%A0%A5_%EC%8B%9C%EB%8F%99.pdf</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280098&amp;num=1</t>
+          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280237&amp;num=1</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>활기 찾은 항공업계,  미래 인재 만나는 항공산업 잡페어 개최</t>
+          <t>2024 코리아 튜닝카 페스티벌 열린다</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>항공</t>
+          <t>모빌리티자동차</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-26</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=240925%28%EC%A1%B0%EA%B0%84%29_%ED%99%9C%EA%B8%B0%EC%B0%BE%EC%9D%80_%ED%95%AD%EA%B3%B5%EC%97%85%EA%B3%84__%EB%AF%B8%EB%9E%98_%EC%9D%B8%EC%9E%AC_%EB%A7%8C%EB%82%98%EB%8A%94_%ED%95%AD%EA%B3%B5%EC%82%B0%EC%97%85_%EC%9E%A1%ED%8E%98%EC%96%B4_%EA%B0%9C%EC%B5%9C%28%ED%95%AD%EA%B3%B5%EC%A0%95%EC%B1%85%EA%B3%BC%29.pdf</t>
+          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=240926%28%EC%84%9D%EA%B0%84%29+2024+%EC%BD%94%EB%A6%AC%EC%95%84+%ED%8A%9C%EB%8B%9D%EC%B9%B4+%ED%8E%98%EC%8A%A4%ED%8B%B0%EB%B2%8C+%EC%97%B4%EB%A6%B0%EB%8B%A4%28%EC%9E%90%EB%8F%99%EC%B0%A8%EC%A0%95%EC%B1%85%EA%B3%BC%29.pdf</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280097&amp;num=1</t>
+          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280198&amp;num=1</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>지속가능항공유(SAF) 혼합의무제도 도입 위한 첫 발 내딛다</t>
+          <t>26일 주택공급 활성화 위한 정책세미나 개최</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>항공</t>
+          <t>주택토지</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-25</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=240924%28%EC%84%9D%EA%B0%84%29+%EC%A7%80%EC%86%8D%EA%B0%80%EB%8A%A5%ED%95%AD%EA%B3%B5%EC%9C%A0%28SAF%29+%ED%98%BC%ED%95%A9%EC%9D%98%EB%AC%B4%EC%A0%9C%EB%8F%84+%EB%8F%84%EC%9E%85+%EC%9C%84%ED%95%9C+%EC%B2%AB+%EB%B0%9C+%EB%82%B4%EB%94%9B%EB%8B%A4%28%ED%95%AD%EA%B3%B5%EA%B8%B0%EC%88%A0%EA%B3%BC%29_.pdf</t>
+          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=240926%28%EC%A1%B0%EA%B0%84%29_26%EC%9D%BC_%EC%A3%BC%ED%83%9D%EA%B3%B5%EA%B8%89_%ED%99%9C%EC%84%B1%ED%99%94_%EC%9C%84%ED%95%9C_%EC%A0%95%EC%B1%85%EC%84%B8%EB%AF%B8%EB%82%98_%EA%B0%9C%EC%B5%9C%28%EC%A3%BC%ED%83%9D%EC%A0%95%EC%B1%85%EA%B3%BC%29.pdf</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280077&amp;num=1</t>
+          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280179&amp;num=1</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>국토부-환경부, 지속가능한  국토·환경관리 위해 머리 맞댄다</t>
+          <t>더 편리한 공항, 이용자들이 직접 만든다</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>국토도시</t>
+          <t>항공</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-25</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=0924%28%EC%84%9D%EA%B0%84%29+%EA%B5%AD%ED%86%A0%EB%B6%80-%ED%99%98%EA%B2%BD%EB%B6%80%2C+%EC%A7%80%EC%86%8D%EA%B0%80%EB%8A%A5%ED%95%9C+%EA%B5%AD%ED%86%A0%ED%99%98%EA%B2%BD%EA%B4%80%EB%A6%AC+%EC%9C%84%ED%95%B4+%EB%A8%B8%EB%A6%AC+%EB%A7%9E%EB%8C%84%EB%8B%A4%28%EA%B5%AD%ED%86%A0%EC%A0%95%EC%B1%85%EA%B3%BC%29.pdf</t>
+          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=240926%28%EC%A1%B0%EA%B0%84%29_%EB%8D%94_%ED%8E%B8%EB%A6%AC%ED%95%9C_%EA%B3%B5%ED%95%AD__%EC%9D%B4%EC%9A%A9%EC%9E%90%EB%93%A4%EC%9D%B4_%EC%A7%81%EC%A0%91_%EB%A7%8C%EB%93%A0%EB%8B%A4%28%EA%B3%B5%ED%95%AD%EC%9A%B4%EC%98%81%EA%B3%BC%29.pdf</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280017&amp;num=1</t>
+          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280178&amp;num=1</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>청년, 신혼·신생아 매입임대주택26일부터 24년 3차 입주자 모집 시작</t>
+          <t>3%대 금리, 청약예·부금 종합저축으로 전환 가능…‘청약통장’ 더 쏠쏠해진다</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1511,78 +1511,78 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-25</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=240924%28%EC%A1%B0%EA%B0%84%29+%EC%B2%AD%EB%85%84%2C+%EC%8B%A0%ED%98%BC%C2%B7%EC%8B%A0%EC%83%9D%EC%95%84+%EB%A7%A4%EC%9E%85%EC%9E%84%EB%8C%80%EC%A3%BC%ED%83%9D26%EC%9D%BC%EB%B6%80%ED%84%B0+24%EB%85%84+3%EC%B0%A8+%EC%9E%85%EC%A3%BC%EC%9E%90+%EB%AA%A8%EC%A7%91+%EC%8B%9C%EC%9E%91%28%EC%A3%BC%EA%B1%B0%EB%B3%B5%EC%A7%80%EC%A7%80%EC%9B%90%EA%B3%BC%29.pdf</t>
+          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=240926%28%EC%A1%B0%EA%B0%84%29_3%ED%8D%BC%EC%84%BC%ED%8A%B8%EB%8C%80_%EA%B8%88%EB%A6%AC__%EC%B2%AD%EC%95%BD%EC%98%88%EB%B6%80%EA%B8%88_%EC%A2%85%ED%95%A9%EC%A0%80%EC%B6%95%EC%9C%BC%EB%A1%9C_%EC%A0%84%ED%99%98_%EA%B0%80%EB%8A%A5_%E2%80%98%EC%B2%AD%EC%95%BD%ED%86%B5%EC%9E%A5%E2%80%99_%EB%8D%94_%EC%8F%A0%EC%8F%A0%ED%95%B4%EC%A7%84%EB%8B%A4%28%EC%A3%BC%ED%83%9D%EA%B8%B0%EA%B8%88%EA%B3%BC%29.pdf</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280037&amp;num=1</t>
+          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280177&amp;num=1</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>국토교통부, ‘찾아가는 청년주거상담소 운영’</t>
+          <t>굴착공사장 지하안전 고강도 특별점검</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>일반</t>
+          <t>건설</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-25</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=240924%28%EC%A1%B0%EA%B0%84%29+%EA%B5%AD%ED%86%A0%EA%B5%90%ED%86%B5%EB%B6%80%2C+%EC%B0%BE%EC%95%84%EA%B0%80%EB%8A%94+%EC%B2%AD%EB%85%84%EC%A3%BC%EA%B1%B0%EC%83%81%EB%8B%B4%EC%86%8C+%EC%9A%B4%EC%98%81%28%EC%B2%AD%EB%85%84%EC%A0%95%EC%B1%85%EC%B4%9D%EA%B4%84%ED%8C%80%29.pdf</t>
+          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=240925%28%EC%84%9D%EA%B0%84%29+%EA%B5%B4%EC%B0%A9%EA%B3%B5%EC%82%AC%EC%9E%A5+%EC%A7%80%ED%95%98%EC%95%88%EC%A0%84+%EA%B3%A0%EA%B0%95%EB%8F%84+%ED%8A%B9%EB%B3%84%EC%A0%90%EA%B2%80%28%EA%B1%B4%EC%84%A4%EC%95%88%EC%A0%84%EA%B3%BC%29.pdf</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=279998&amp;num=1</t>
+          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280137&amp;num=1</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>「전세사기 피해자법」 온라인 설명회로 더 알아보세요</t>
+          <t>현대·기아 등 자발적 시정조치(리콜)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>주택토지</t>
+          <t>모빌리티자동차</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-25</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=240924%28%EC%A1%B0%EA%B0%84%29+%EC%A0%84%EC%84%B8%EC%82%AC%EA%B8%B0+%ED%94%BC%ED%95%B4%EC%9E%90%EB%B2%95+%EC%98%A8%EB%9D%BC%EC%9D%B8+%EC%84%A4%EB%AA%85%ED%9A%8C%EB%A1%9C+%EB%8D%94+%EC%95%8C%EC%95%84%EB%B3%B4%EC%84%B8%EC%9A%94%28%ED%94%BC%ED%95%B4%EC%A7%80%EC%9B%90%EC%B4%9D%EA%B4%84%EA%B3%BC%29.pdf</t>
+          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=240925%28%EC%84%9D%EA%B0%84%29+%ED%98%84%EB%8C%80%2C+%EA%B8%B0%EC%95%84+%EB%93%B1+%EC%9E%90%EB%B0%9C%EC%A0%81+%EC%8B%9C%EC%A0%95%EC%A1%B0%EC%B9%98%28%EC%9E%90%EB%8F%99%EC%B0%A8%EC%A0%95%EC%B1%85%EA%B3%BC%29_.pdf</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=279997&amp;num=1</t>
+          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280117&amp;num=1</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>K-공간정보 기술 세계에 알린다</t>
+          <t>1기 신도시 5곳 총 14.2만호 추가 공급기반 마련   일산신도시 기본계획 25일 공개(아파트 기준용적률 300%)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1592,78 +1592,78 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-24</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=240923%28%EC%84%9D%EA%B0%84%29+K-%EA%B3%B5%EA%B0%84%EC%A0%95%EB%B3%B4+%EA%B8%B0%EC%88%A0+%EC%84%B8%EA%B3%84%EC%97%90+%EC%95%8C%EB%A6%B0%EB%8B%A4%28%EA%B3%B5%EA%B0%84%EC%A0%95%EB%B3%B4%EC%A7%84%ED%9D%A5%EA%B3%BC%29.pdf</t>
+          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=240925%28%EC%A1%B0%EA%B0%84%29+1%EA%B8%B0+%EC%8B%A0%EB%8F%84%EC%8B%9C+5%EA%B3%B3+%EC%B4%9D+14.2%EB%A7%8C%ED%98%B8+%EA%B3%B5%EA%B8%89%EA%B8%B0%EB%B0%98+%EC%A0%9C%EC%8B%9C%28%EB%8F%84%EC%8B%9C%EC%A0%95%EB%B9%84%EA%B8%B0%ED%9A%8D%EA%B3%BC%29_.pdf</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=279957&amp;num=1</t>
+          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280197&amp;num=1</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>체코 공식방문 계기 한-체코 교통 및 인프라 협력 지평 확대</t>
+          <t>인천공항 하늘길 넓어진다…  수도권 민·군공역 조정</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>건설</t>
+          <t>항공</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-24</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=240923%28%EC%A1%B0%EA%B0%84%29_%EC%B2%B4%EC%BD%94_%EA%B3%B5%EC%8B%9D%EB%B0%A9%EB%AC%B8_%EA%B3%84%EA%B8%B0_%ED%95%9C-%EC%B2%B4%EC%BD%94_%EA%B5%90%ED%86%B5_%EB%B0%8F_%EC%9D%B8%ED%94%84%EB%9D%BC_%ED%98%91%EB%A0%A5_%EC%A7%80%ED%8F%89_%ED%99%95%EB%8C%80%28%ED%95%B4%EC%99%B8%EA%B1%B4%EC%84%A4%EC%A0%95%EC%B1%85%EA%B3%BC%29.pdf</t>
+          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=240925%28%EC%A1%B0%EA%B0%84%29_%EC%9D%B8%EC%B2%9C%EA%B3%B5%ED%95%AD_%ED%95%98%EB%8A%98%EA%B8%B8_%EB%84%93%EC%96%B4%EC%A7%84%EB%8B%A4_%EC%88%98%EB%8F%84%EA%B6%8C_%EB%AF%BC%EA%B5%B0%EA%B3%B5%EC%97%AD_%EC%A1%B0%EC%A0%95%28%ED%95%AD%EA%B3%B5%EA%B5%90%ED%86%B5%EA%B3%BC%29.pdf</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=279977&amp;num=1</t>
+          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280098&amp;num=1</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>가족과 함께하는 용산어린이정원  클래식 음악회 열린다</t>
+          <t>활기 찾은 항공업계,  미래 인재 만나는 항공산업 잡페어 개최</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>국토도시</t>
+          <t>항공</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-24</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=240920%28%EC%84%9D%EA%B0%84%29_%EA%B0%80%EC%A1%B1%EA%B3%BC_%ED%95%A8%EA%BB%98%ED%95%98%EB%8A%94_%EC%9A%A9%EC%82%B0%EC%96%B4%EB%A6%B0%EC%9D%B4%EC%A0%95%EC%9B%90_%ED%81%B4%EB%9E%98%EC%8B%9D_%EC%9D%8C%EC%95%85%ED%9A%8C_%EC%97%B4%EB%A6%B0%EB%8B%A4%28%EA%B3%B5%EC%9B%90%EC%9A%B4%EC%98%81%EA%B3%BC%29.pdf</t>
+          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=240925%28%EC%A1%B0%EA%B0%84%29_%ED%99%9C%EA%B8%B0%EC%B0%BE%EC%9D%80_%ED%95%AD%EA%B3%B5%EC%97%85%EA%B3%84__%EB%AF%B8%EB%9E%98_%EC%9D%B8%EC%9E%AC_%EB%A7%8C%EB%82%98%EB%8A%94_%ED%95%AD%EA%B3%B5%EC%82%B0%EC%97%85_%EC%9E%A1%ED%8E%98%EC%96%B4_%EA%B0%9C%EC%B5%9C%28%ED%95%AD%EA%B3%B5%EC%A0%95%EC%B1%85%EA%B3%BC%29.pdf</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=279917&amp;num=1</t>
+          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280097&amp;num=1</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>여객공항사용료 환급을 위한 「공항시설법」 개정안 입법예고</t>
+          <t>지속가능항공유(SAF) 혼합의무제도 도입 위한 첫 발 내딛다</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1673,24 +1673,24 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-24</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=240920%28%EC%A1%B0%EA%B0%84%29+%EC%97%AC%EA%B0%9D%EA%B3%B5%ED%95%AD%EC%82%AC%EC%9A%A9%EB%A3%8C+%ED%99%98%EA%B8%89%EC%9D%84+%EC%9C%84%ED%95%9C+%EA%B3%B5%ED%95%AD%EC%8B%9C%EC%84%A4%EB%B2%95+%EA%B0%9C%EC%A0%95%EC%95%88+%EC%9E%85%EB%B2%95%EC%98%88%EA%B3%A0%28%ED%95%AD%EA%B3%B5%EC%A0%95%EC%B1%85%EA%B3%BC%29.pdf</t>
+          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=240924%28%EC%84%9D%EA%B0%84%29+%EC%A7%80%EC%86%8D%EA%B0%80%EB%8A%A5%ED%95%AD%EA%B3%B5%EC%9C%A0%28SAF%29+%ED%98%BC%ED%95%A9%EC%9D%98%EB%AC%B4%EC%A0%9C%EB%8F%84+%EB%8F%84%EC%9E%85+%EC%9C%84%ED%95%9C+%EC%B2%AB+%EB%B0%9C+%EB%82%B4%EB%94%9B%EB%8B%A4%28%ED%95%AD%EA%B3%B5%EA%B8%B0%EC%88%A0%EA%B3%BC%29_.pdf</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=279897&amp;num=1</t>
+          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280077&amp;num=1</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>지적측량 정확도 높인다</t>
+          <t>국토부-환경부, 지속가능한  국토·환경관리 위해 머리 맞댄다</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1700,51 +1700,51 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-24</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=240919%28%EC%A1%B0%EA%B0%84%29_%EC%A7%80%EC%A0%81%EC%B8%A1%EB%9F%89_%EC%A0%95%ED%99%95%EB%8F%84_%EB%86%92%EC%9D%B8%EB%8B%A4%28%EA%B3%B5%EA%B0%84%EC%A0%95%EB%B3%B4%EC%A0%9C%EB%8F%84%EA%B3%BC%29.pdf</t>
+          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=0924%28%EC%84%9D%EA%B0%84%29+%EA%B5%AD%ED%86%A0%EB%B6%80-%ED%99%98%EA%B2%BD%EB%B6%80%2C+%EC%A7%80%EC%86%8D%EA%B0%80%EB%8A%A5%ED%95%9C+%EA%B5%AD%ED%86%A0%ED%99%98%EA%B2%BD%EA%B4%80%EB%A6%AC+%EC%9C%84%ED%95%B4+%EB%A8%B8%EB%A6%AC+%EB%A7%9E%EB%8C%84%EB%8B%A4%28%EA%B5%AD%ED%86%A0%EC%A0%95%EC%B1%85%EA%B3%BC%29.pdf</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=279837&amp;num=1</t>
+          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280017&amp;num=1</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>[장관동정] 국토교통부,“명절에도 모두가 안전한 교통대책”강조</t>
+          <t>청년, 신혼·신생아 매입임대주택26일부터 24년 3차 입주자 모집 시작</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>교통물류</t>
+          <t>주택토지</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-23</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=240914%28%EB%8F%99%EC%A0%95%29_%EA%B5%AD%ED%86%A0%EA%B5%90%ED%86%B5%EB%B6%80__%EB%AA%85%EC%A0%88%EC%97%90%EB%8F%84_%EB%AA%A8%EB%91%90%EA%B0%80_%EC%95%88%EC%A0%84%ED%95%9C_%EA%B5%90%ED%86%B5%EB%8C%80%EC%B1%85_%EA%B0%95%EC%A1%B0.pdf</t>
+          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=240924%28%EC%A1%B0%EA%B0%84%29+%EC%B2%AD%EB%85%84%2C+%EC%8B%A0%ED%98%BC%C2%B7%EC%8B%A0%EC%83%9D%EC%95%84+%EB%A7%A4%EC%9E%85%EC%9E%84%EB%8C%80%EC%A3%BC%ED%83%9D26%EC%9D%BC%EB%B6%80%ED%84%B0+24%EB%85%84+3%EC%B0%A8+%EC%9E%85%EC%A3%BC%EC%9E%90+%EB%AA%A8%EC%A7%91+%EC%8B%9C%EC%9E%91%28%EC%A3%BC%EA%B1%B0%EB%B3%B5%EC%A7%80%EC%A7%80%EC%9B%90%EA%B3%BC%29.pdf</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=279877&amp;num=1</t>
+          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=280037&amp;num=1</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>[차관동정] 국토교통부, 추석연휴 앞두고 공항안전·비상진료계획 점검</t>
+          <t>국토교통부, ‘찾아가는 청년주거상담소 운영’</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1754,71 +1754,71 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-23</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=240913%28%EB%8F%99%EC%A0%95%29_%EA%B5%AD%ED%86%A0%EA%B5%90%ED%86%B5%EB%B6%80__%EC%B6%94%EC%84%9D%EC%97%B0%ED%9C%B4_%EC%95%9E%EB%91%90%EA%B3%A0_%EA%B3%B5%ED%95%AD%EC%95%88%EC%A0%84_%EB%B9%84%EC%83%81%EC%A7%84%EB%A3%8C%EA%B3%84%ED%9A%8D_%EC%A0%90%EA%B2%80.pdf</t>
+          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=240924%28%EC%A1%B0%EA%B0%84%29+%EA%B5%AD%ED%86%A0%EA%B5%90%ED%86%B5%EB%B6%80%2C+%EC%B0%BE%EC%95%84%EA%B0%80%EB%8A%94+%EC%B2%AD%EB%85%84%EC%A3%BC%EA%B1%B0%EC%83%81%EB%8B%B4%EC%86%8C+%EC%9A%B4%EC%98%81%28%EC%B2%AD%EB%85%84%EC%A0%95%EC%B1%85%EC%B4%9D%EA%B4%84%ED%8C%80%29.pdf</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=279857&amp;num=1</t>
+          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=279998&amp;num=1</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>지반침하 예방을 위해 고위험지역 특별점검 실시</t>
+          <t>「전세사기 피해자법」 온라인 설명회로 더 알아보세요</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>건설</t>
+          <t>주택토지</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-23</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=240913%28%EC%84%9D%EA%B0%84%29+%EC%A7%80%EB%B0%98%EC%B9%A8%ED%95%98+%EC%98%88%EB%B0%A9+%EC%9C%84%ED%95%B4+%EA%B3%A0%EC%9C%84%ED%97%98%EC%A7%80%EC%97%AD+%ED%8A%B9%EB%B3%84%EC%A0%90%EA%B2%80+%EC%8B%A4%EC%8B%9C%28%EA%B1%B4%EC%84%A4%EC%95%88%EC%A0%84%EA%B3%BC%29.pdf</t>
+          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=240924%28%EC%A1%B0%EA%B0%84%29+%EC%A0%84%EC%84%B8%EC%82%AC%EA%B8%B0+%ED%94%BC%ED%95%B4%EC%9E%90%EB%B2%95+%EC%98%A8%EB%9D%BC%EC%9D%B8+%EC%84%A4%EB%AA%85%ED%9A%8C%EB%A1%9C+%EB%8D%94+%EC%95%8C%EC%95%84%EB%B3%B4%EC%84%B8%EC%9A%94%28%ED%94%BC%ED%95%B4%EC%A7%80%EC%9B%90%EC%B4%9D%EA%B4%84%EA%B3%BC%29.pdf</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=279777&amp;num=1</t>
+          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=279997&amp;num=1</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>분양가상한제 기본형건축비 9월 정기고시</t>
+          <t>K-공간정보 기술 세계에 알린다</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>주택토지</t>
+          <t>국토도시</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-23</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=240913%28%EC%84%9D%EA%B0%84%29_%EB%B6%84%EC%96%91%EA%B0%80%EC%83%81%ED%95%9C%EC%A0%9C_%EA%B8%B0%EB%B3%B8%ED%98%95%EA%B1%B4%EC%B6%95%EB%B9%84_9%EC%9B%94_%EC%A0%95%EA%B8%B0%EA%B3%A0%EC%8B%9C%28%EC%A3%BC%ED%83%9D%EC%A0%95%EC%B1%85%EA%B3%BC%29.pdf</t>
+          <t>https://www.molit.go.kr/LCMS/DWN.jsp?fold=koreaNews/mobile/file&amp;fileName=240923%28%EC%84%9D%EA%B0%84%29+K-%EA%B3%B5%EA%B0%84%EC%A0%95%EB%B3%B4+%EA%B8%B0%EC%88%A0+%EC%84%B8%EA%B3%84%EC%97%90+%EC%95%8C%EB%A6%B0%EB%8B%A4%28%EA%B3%B5%EA%B0%84%EC%A0%95%EB%B3%B4%EC%A7%84%ED%9D%A5%EA%B3%BC%29.pdf</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=279721&amp;num=1</t>
+          <t>https://www.molit.go.kr/USR/viewer.do?mode=mb&amp;type=NEWS&amp;id=279957&amp;num=1</t>
         </is>
       </c>
     </row>
